--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2429.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2429.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.026989590314243</v>
+        <v>0.6784462332725525</v>
       </c>
       <c r="B1">
-        <v>2.081268477728126</v>
+        <v>2.512659311294556</v>
       </c>
       <c r="C1">
-        <v>8.96862380096603</v>
+        <v>3.282250642776489</v>
       </c>
       <c r="D1">
-        <v>2.272930986381271</v>
+        <v>3.699621200561523</v>
       </c>
       <c r="E1">
-        <v>0.99267970107743</v>
+        <v>0.9225375652313232</v>
       </c>
     </row>
   </sheetData>
